--- a/ROOT/tmpfiles/price_list.xlsx
+++ b/ROOT/tmpfiles/price_list.xlsx
@@ -12,270 +12,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="88">
-  <si>
-    <t>Banana Yelakki</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+  <si>
+    <t>Banana Yelakki Raw</t>
   </si>
   <si>
     <t>kg</t>
   </si>
   <si>
-    <t>60</t>
+    <t>Guaua (Medium/Small)</t>
+  </si>
+  <si>
+    <t>Muskmelon</t>
+  </si>
+  <si>
+    <t>Orange Nagpur</t>
+  </si>
+  <si>
+    <t>Papaya Red Lady</t>
+  </si>
+  <si>
+    <t>Pineapple</t>
   </si>
   <si>
     <t>Pomegranate (Medium)</t>
   </si>
   <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>Muskmelon</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Watermelon</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>Papaya Red Lady</t>
-  </si>
-  <si>
     <t>Sapota Hybrid</t>
   </si>
   <si>
-    <t>64</t>
+    <t>Sweet Lime - Moosambi</t>
+  </si>
+  <si>
+    <t>Watermelon Kiran (Size: 2-4kgs)</t>
+  </si>
+  <si>
+    <t>Avarekai</t>
+  </si>
+  <si>
+    <t>Baby Corn</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>Banana Raw</t>
+  </si>
+  <si>
+    <t>Beans Cluster</t>
+  </si>
+  <si>
+    <t>Beans Long</t>
+  </si>
+  <si>
+    <t>Beans Naati</t>
+  </si>
+  <si>
+    <t>Bitter Gourd</t>
+  </si>
+  <si>
+    <t>Bottle Gourd</t>
+  </si>
+  <si>
+    <t>Brinjal Long Green</t>
+  </si>
+  <si>
+    <t>Brinjal Purple Round</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>Capsicum Green</t>
+  </si>
+  <si>
+    <t>Cauliflower</t>
+  </si>
+  <si>
+    <t>Chilli Bajji</t>
+  </si>
+  <si>
+    <t>Chilli Green</t>
+  </si>
+  <si>
+    <t>Chow Chow</t>
+  </si>
+  <si>
+    <t>Coconut (Medium)</t>
+  </si>
+  <si>
+    <t>Colocasia</t>
+  </si>
+  <si>
+    <t>Cucumber Green</t>
+  </si>
+  <si>
+    <t>Garlic Local</t>
+  </si>
+  <si>
+    <t>Ginger Fresh</t>
+  </si>
+  <si>
+    <t>Knol Khol</t>
+  </si>
+  <si>
+    <t>Ladies Finger</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Potato</t>
+  </si>
+  <si>
+    <t>Ridge Gourd</t>
+  </si>
+  <si>
+    <t>Sambar Cucumber</t>
+  </si>
+  <si>
+    <t>Snake Gourd</t>
+  </si>
+  <si>
+    <t>Spring Onion</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
+    <t>Sweet Corn</t>
+  </si>
+  <si>
+    <t>Sweet Potato</t>
+  </si>
+  <si>
+    <t>Tomato Hybrid</t>
+  </si>
+  <si>
+    <t>Tomato Naati</t>
+  </si>
+  <si>
+    <t>Yam</t>
   </si>
   <si>
     <t>Coriander Leaves</t>
   </si>
   <si>
-    <t>bunch</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Mint Leaves</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>Methi Leaves</t>
+  </si>
+  <si>
+    <t>Mint (Puthina) Leaves</t>
   </si>
   <si>
     <t>Palak Leaves</t>
-  </si>
-  <si>
-    <t>Amaranth Leaves</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Dill Leaves</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Harive Leaves</t>
-  </si>
-  <si>
-    <t>Kashi Leaves</t>
-  </si>
-  <si>
-    <t>Chakotha Leaves</t>
-  </si>
-  <si>
-    <t>Ash Gourd (Cut Piece)</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Pumpkin (Cut Piece)</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Ridge Guard</t>
-  </si>
-  <si>
-    <t>Bitter Gourd</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Bottle Gourd</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>Snake Gourd</t>
-  </si>
-  <si>
-    <t>Beans Cluster</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Beans Naati</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Beans Farm</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Beans Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beans Broad </t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Chow Chow</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Coccinea</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>Ladies Finger</t>
-  </si>
-  <si>
-    <t>Capsicum Green</t>
-  </si>
-  <si>
-    <t>Capsicum Color</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>Brinjal Long Green</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Brinjal Purple Round</t>
-  </si>
-  <si>
-    <t>Tomoto Hybrid</t>
-  </si>
-  <si>
-    <t>Tomoto Naati</t>
-  </si>
-  <si>
-    <t>Cabbage</t>
-  </si>
-  <si>
-    <t>Cucumber Green</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Cucumber English</t>
-  </si>
-  <si>
-    <t>Potato</t>
-  </si>
-  <si>
-    <t>Sambar Cucumber</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>Yam</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Carrot Local</t>
-  </si>
-  <si>
-    <t>Beetroot</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>Knol Khol</t>
-  </si>
-  <si>
-    <t>Colocasia</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Chilli Green</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>Ginger Fresh</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>Onion Sambar</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>Garlic Local</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Radish</t>
-  </si>
-  <si>
-    <t>Banana Raw</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coconut </t>
-  </si>
-  <si>
-    <t>Grapes Thompson Seedless</t>
-  </si>
-  <si>
-    <t>173</t>
   </si>
 </sst>
 </file>
@@ -283,61 +175,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="160">
+  <fonts count="148">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -966,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1407,42 +1251,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1451,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1464,580 +1272,536 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
-        <v>2</v>
+      <c r="C1" t="n" s="3">
+        <v>63.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>4</v>
+      <c r="C2" t="n" s="6">
+        <v>98.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s" s="8">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="9">
-        <v>6</v>
+      <c r="C3" t="n" s="9">
+        <v>76.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="C4" t="s" s="12">
-        <v>8</v>
+      <c r="C4" t="n" s="12">
+        <v>111.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="C5" t="s" s="15">
-        <v>2</v>
+      <c r="C5" t="n" s="15">
+        <v>63.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="17">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="18">
-        <v>11</v>
+      <c r="C6" t="n" s="18">
+        <v>72.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="19">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s" s="20">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s" s="21">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C7" t="n" s="21">
+        <v>163.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="22">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s" s="23">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s" s="24">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="C8" t="n" s="24">
+        <v>98.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="25">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s" s="26">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="27">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C9" t="n" s="27">
+        <v>169.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="28">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="29">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s" s="30">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C10" t="n" s="30">
+        <v>49.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="31">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s" s="32">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s" s="33">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="C11" t="n" s="33">
+        <v>76.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="34">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s" s="35">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="36">
-        <v>19</v>
+      <c r="C12" t="n" s="36">
+        <v>46.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="37">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="38">
         <v>13</v>
       </c>
-      <c r="C13" t="s" s="39">
-        <v>19</v>
+      <c r="C13" t="n" s="39">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="40">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s" s="41">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s" s="42">
-        <v>19</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="n" s="42">
+        <v>52.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="43">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s" s="44">
         <v>1</v>
       </c>
-      <c r="C15" t="s" s="45">
-        <v>26</v>
+      <c r="C15" t="n" s="45">
+        <v>63.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="46">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s" s="47">
         <v>1</v>
       </c>
-      <c r="C16" t="s" s="48">
-        <v>28</v>
+      <c r="C16" t="n" s="48">
+        <v>84.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="49">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s" s="50">
         <v>1</v>
       </c>
-      <c r="C17" t="s" s="51">
-        <v>11</v>
+      <c r="C17" t="n" s="51">
+        <v>52.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="52">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s" s="53">
         <v>1</v>
       </c>
-      <c r="C18" t="s" s="54">
-        <v>31</v>
+      <c r="C18" t="n" s="54">
+        <v>42.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="55">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s" s="56">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="57">
-        <v>33</v>
+      <c r="C19" t="n" s="57">
+        <v>50.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="58">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s" s="59">
         <v>1</v>
       </c>
-      <c r="C20" t="s" s="60">
-        <v>33</v>
+      <c r="C20" t="n" s="60">
+        <v>39.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="61">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s" s="62">
         <v>1</v>
       </c>
-      <c r="C21" t="s" s="63">
-        <v>36</v>
+      <c r="C21" t="n" s="63">
+        <v>176.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="64">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s" s="65">
         <v>1</v>
       </c>
-      <c r="C22" t="s" s="66">
-        <v>38</v>
+      <c r="C22" t="n" s="66">
+        <v>42.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="67">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s" s="68">
         <v>1</v>
       </c>
-      <c r="C23" t="s" s="69">
-        <v>40</v>
+      <c r="C23" t="n" s="69">
+        <v>66.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="70">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s" s="71">
         <v>1</v>
       </c>
-      <c r="C24" t="s" s="72">
-        <v>38</v>
+      <c r="C24" t="n" s="72">
+        <v>46.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="73">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="74">
         <v>1</v>
       </c>
-      <c r="C25" t="s" s="75">
-        <v>43</v>
+      <c r="C25" t="n" s="75">
+        <v>49.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="76">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s" s="77">
         <v>1</v>
       </c>
-      <c r="C26" t="s" s="78">
-        <v>45</v>
+      <c r="C26" t="n" s="78">
+        <v>66.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="79">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s" s="80">
         <v>1</v>
       </c>
-      <c r="C27" t="s" s="81">
-        <v>47</v>
+      <c r="C27" t="n" s="81">
+        <v>39.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="82">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s" s="83">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s" s="84">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="C28" t="n" s="84">
+        <v>37.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="85">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s" s="86">
         <v>1</v>
       </c>
-      <c r="C29" t="s" s="87">
-        <v>31</v>
+      <c r="C29" t="n" s="87">
+        <v>89.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="88">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s" s="89">
         <v>1</v>
       </c>
-      <c r="C30" t="s" s="90">
-        <v>51</v>
+      <c r="C30" t="n" s="90">
+        <v>37.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="91">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s" s="92">
         <v>1</v>
       </c>
-      <c r="C31" t="s" s="93">
-        <v>53</v>
+      <c r="C31" t="n" s="93">
+        <v>230.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="94">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s" s="95">
         <v>1</v>
       </c>
-      <c r="C32" t="s" s="96">
-        <v>53</v>
+      <c r="C32" t="n" s="96">
+        <v>111.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="97">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s" s="98">
         <v>1</v>
       </c>
-      <c r="C33" t="s" s="99">
-        <v>33</v>
+      <c r="C33" t="n" s="99">
+        <v>52.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="100">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s" s="101">
         <v>1</v>
       </c>
-      <c r="C34" t="s" s="102">
-        <v>2</v>
+      <c r="C34" t="n" s="102">
+        <v>59.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="103">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s" s="104">
         <v>1</v>
       </c>
-      <c r="C35" t="s" s="105">
-        <v>33</v>
+      <c r="C35" t="n" s="105">
+        <v>182.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="106">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B36" t="s" s="107">
         <v>1</v>
       </c>
-      <c r="C36" t="s" s="108">
-        <v>59</v>
+      <c r="C36" t="n" s="108">
+        <v>52.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="109">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s" s="110">
         <v>1</v>
       </c>
-      <c r="C37" t="s" s="111">
-        <v>43</v>
+      <c r="C37" t="n" s="111">
+        <v>66.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="112">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s" s="113">
         <v>1</v>
       </c>
-      <c r="C38" t="s" s="114">
-        <v>59</v>
+      <c r="C38" t="n" s="114">
+        <v>39.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="115">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B39" t="s" s="116">
         <v>1</v>
       </c>
-      <c r="C39" t="s" s="117">
-        <v>63</v>
+      <c r="C39" t="n" s="117">
+        <v>45.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="118">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B40" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s" s="120">
-        <v>65</v>
+        <v>42</v>
+      </c>
+      <c r="C40" t="n" s="120">
+        <v>46.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="121">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="B41" t="s" s="122">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s" s="123">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="C41" t="n" s="123">
+        <v>29.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="124">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s" s="125">
         <v>1</v>
       </c>
-      <c r="C42" t="s" s="126">
-        <v>68</v>
+      <c r="C42" t="n" s="126">
+        <v>50.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="127">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B43" t="s" s="128">
         <v>1</v>
       </c>
-      <c r="C43" t="s" s="129">
-        <v>70</v>
+      <c r="C43" t="n" s="129">
+        <v>37.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="130">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s" s="131">
         <v>1</v>
       </c>
-      <c r="C44" t="s" s="132">
-        <v>59</v>
+      <c r="C44" t="n" s="132">
+        <v>33.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="133">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s" s="134">
         <v>1</v>
       </c>
-      <c r="C45" t="s" s="135">
-        <v>73</v>
+      <c r="C45" t="n" s="135">
+        <v>59.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="136">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="137">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s" s="138">
-        <v>75</v>
+        <v>42</v>
+      </c>
+      <c r="C46" t="n" s="138">
+        <v>33.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="139">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s" s="140">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s" s="141">
-        <v>77</v>
+        <v>42</v>
+      </c>
+      <c r="C47" t="n" s="141">
+        <v>34.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="142">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s" s="143">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s" s="144">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="C48" t="n" s="144">
+        <v>21.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="145">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s" s="146">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s" s="147">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="148">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s" s="149">
-        <v>13</v>
-      </c>
-      <c r="C50" t="s" s="150">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s" s="151">
-        <v>83</v>
-      </c>
-      <c r="B51" t="s" s="152">
-        <v>84</v>
-      </c>
-      <c r="C51" t="s" s="153">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="154">
-        <v>85</v>
-      </c>
-      <c r="B52" t="s" s="155">
-        <v>84</v>
-      </c>
-      <c r="C52" t="s" s="156">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s" s="157">
-        <v>86</v>
-      </c>
-      <c r="B53" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s" s="159">
-        <v>87</v>
+        <v>42</v>
+      </c>
+      <c r="C49" t="n" s="147">
+        <v>33.0</v>
       </c>
     </row>
   </sheetData>

--- a/ROOT/tmpfiles/price_list.xlsx
+++ b/ROOT/tmpfiles/price_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="54">
   <si>
     <t>Banana Yelakki Raw</t>
   </si>
@@ -20,19 +20,10 @@
     <t>kg</t>
   </si>
   <si>
-    <t>Guaua (Medium/Small)</t>
-  </si>
-  <si>
     <t>Muskmelon</t>
   </si>
   <si>
-    <t>Orange Nagpur</t>
-  </si>
-  <si>
-    <t>Papaya Red Lady</t>
-  </si>
-  <si>
-    <t>Pineapple</t>
+    <t>Papaya Red Lady (1-2 Kgs)</t>
   </si>
   <si>
     <t>Pomegranate (Medium)</t>
@@ -41,34 +32,28 @@
     <t>Sapota Hybrid</t>
   </si>
   <si>
-    <t>Sweet Lime - Moosambi</t>
-  </si>
-  <si>
-    <t>Watermelon Kiran (Size: 2-4kgs)</t>
-  </si>
-  <si>
-    <t>Avarekai</t>
-  </si>
-  <si>
-    <t>Baby Corn</t>
+    <t>Sweet Lime - Mosambi</t>
+  </si>
+  <si>
+    <t>Watermelon Kiran (2-4kgs)</t>
+  </si>
+  <si>
+    <t>Ash Gourd (Cut Piece)</t>
+  </si>
+  <si>
+    <t>Banana Raw</t>
   </si>
   <si>
     <t>pc</t>
   </si>
   <si>
-    <t>Banana Raw</t>
+    <t xml:space="preserve">Beans Broad </t>
   </si>
   <si>
     <t>Beans Cluster</t>
   </si>
   <si>
-    <t>Beans Long</t>
-  </si>
-  <si>
-    <t>Beans Naati</t>
-  </si>
-  <si>
-    <t>Bitter Gourd</t>
+    <t>Beetroot</t>
   </si>
   <si>
     <t>Bottle Gourd</t>
@@ -80,15 +65,21 @@
     <t>Brinjal Purple Round</t>
   </si>
   <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
     <t>Cabbage</t>
   </si>
   <si>
     <t>Capsicum Green</t>
   </si>
   <si>
+    <t>Capsicum Red</t>
+  </si>
+  <si>
+    <t>Capsicum Yellow</t>
+  </si>
+  <si>
+    <t>Carrot Local</t>
+  </si>
+  <si>
     <t>Cauliflower</t>
   </si>
   <si>
@@ -101,33 +92,54 @@
     <t>Chow Chow</t>
   </si>
   <si>
+    <t>Coccinea</t>
+  </si>
+  <si>
     <t>Coconut (Medium)</t>
   </si>
   <si>
-    <t>Colocasia</t>
+    <t>Colocasia (Arbi)</t>
+  </si>
+  <si>
+    <t>Cucumber English</t>
   </si>
   <si>
     <t>Cucumber Green</t>
   </si>
   <si>
+    <t>Drumstick</t>
+  </si>
+  <si>
     <t>Garlic Local</t>
   </si>
   <si>
     <t>Ginger Fresh</t>
   </si>
   <si>
-    <t>Knol Khol</t>
-  </si>
-  <si>
     <t>Ladies Finger</t>
   </si>
   <si>
+    <t>Lemon</t>
+  </si>
+  <si>
+    <t>Mango Raw</t>
+  </si>
+  <si>
     <t>Onion</t>
   </si>
   <si>
     <t>Potato</t>
   </si>
   <si>
+    <t>Pumpkin (Cut Piece)</t>
+  </si>
+  <si>
+    <t>Radish</t>
+  </si>
+  <si>
+    <t>bunch</t>
+  </si>
+  <si>
     <t>Ridge Gourd</t>
   </si>
   <si>
@@ -137,12 +149,6 @@
     <t>Snake Gourd</t>
   </si>
   <si>
-    <t>Spring Onion</t>
-  </si>
-  <si>
-    <t>bunch</t>
-  </si>
-  <si>
     <t>Sweet Corn</t>
   </si>
   <si>
@@ -152,7 +158,7 @@
     <t>Tomato Hybrid</t>
   </si>
   <si>
-    <t>Tomato Naati</t>
+    <t>Tomato Nati</t>
   </si>
   <si>
     <t>Yam</t>
@@ -161,10 +167,10 @@
     <t>Coriander Leaves</t>
   </si>
   <si>
+    <t>Dill Leaves</t>
+  </si>
+  <si>
     <t>Methi Leaves</t>
-  </si>
-  <si>
-    <t>Mint (Puthina) Leaves</t>
   </si>
   <si>
     <t>Palak Leaves</t>
@@ -175,13 +181,37 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="148">
+  <fonts count="154">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -810,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left"/>
@@ -1251,6 +1281,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="147" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1259,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1273,7 +1321,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="n" s="3">
-        <v>63.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="2">
@@ -1284,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n" s="6">
-        <v>98.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="3">
@@ -1295,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>76.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="4">
@@ -1306,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n" s="12">
-        <v>111.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="5">
@@ -1317,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n" s="15">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="6">
@@ -1328,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n" s="18">
-        <v>72.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="7">
@@ -1339,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n" s="21">
-        <v>163.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="8">
@@ -1350,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n" s="24">
-        <v>98.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="9">
@@ -1358,43 +1406,43 @@
         <v>9</v>
       </c>
       <c r="B9" t="s" s="26">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n" s="27">
-        <v>169.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s" s="29">
         <v>1</v>
       </c>
       <c r="C10" t="n" s="30">
-        <v>49.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s" s="32">
         <v>1</v>
       </c>
       <c r="C11" t="n" s="33">
-        <v>76.0</v>
+        <v>66.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="34">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s" s="35">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n" s="36">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="13">
@@ -1402,10 +1450,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="38">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n" s="39">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="14">
@@ -1416,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n" s="42">
-        <v>52.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="15">
@@ -1427,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n" s="45">
-        <v>63.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="16">
@@ -1438,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n" s="48">
-        <v>84.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="17">
@@ -1449,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n" s="51">
-        <v>52.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="18">
@@ -1460,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n" s="54">
-        <v>42.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="19">
@@ -1471,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n" s="57">
-        <v>50.0</v>
+        <v>143.0</v>
       </c>
     </row>
     <row r="20">
@@ -1482,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n" s="60">
-        <v>39.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="n" s="63">
-        <v>176.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="22">
@@ -1504,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n" s="66">
-        <v>42.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="23">
@@ -1526,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="n" s="72">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
     </row>
     <row r="25">
@@ -1537,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C25" t="n" s="75">
-        <v>49.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -1545,10 +1593,10 @@
         <v>27</v>
       </c>
       <c r="B26" t="s" s="77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C26" t="n" s="78">
-        <v>66.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="27">
@@ -1559,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n" s="81">
-        <v>39.0</v>
+        <v>115.0</v>
       </c>
     </row>
     <row r="28">
@@ -1567,10 +1615,10 @@
         <v>29</v>
       </c>
       <c r="B28" t="s" s="83">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n" s="84">
-        <v>37.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="29">
@@ -1581,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="n" s="87">
-        <v>89.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="30">
@@ -1592,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="n" s="90">
-        <v>37.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n" s="93">
-        <v>230.0</v>
+        <v>182.0</v>
       </c>
     </row>
     <row r="32">
@@ -1614,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n" s="96">
-        <v>111.0</v>
+        <v>94.0</v>
       </c>
     </row>
     <row r="33">
@@ -1625,7 +1673,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n" s="99">
-        <v>52.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="34">
@@ -1636,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n" s="102">
-        <v>59.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="35">
@@ -1647,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="n" s="105">
-        <v>182.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="36">
@@ -1658,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="n" s="108">
-        <v>52.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="37">
@@ -1669,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n" s="111">
-        <v>66.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="38">
@@ -1680,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n" s="114">
-        <v>39.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="39">
@@ -1688,21 +1736,21 @@
         <v>40</v>
       </c>
       <c r="B39" t="s" s="116">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C39" t="n" s="117">
-        <v>45.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="118">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s" s="119">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n" s="120">
-        <v>46.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="41">
@@ -1710,10 +1758,10 @@
         <v>43</v>
       </c>
       <c r="B41" t="s" s="122">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n" s="123">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="42">
@@ -1724,7 +1772,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n" s="126">
-        <v>50.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="43">
@@ -1732,10 +1780,10 @@
         <v>45</v>
       </c>
       <c r="B43" t="s" s="128">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C43" t="n" s="129">
-        <v>37.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="44">
@@ -1746,7 +1794,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="n" s="132">
-        <v>33.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="45">
@@ -1757,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n" s="135">
-        <v>59.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="46">
@@ -1765,10 +1813,10 @@
         <v>48</v>
       </c>
       <c r="B46" t="s" s="137">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C46" t="n" s="138">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="47">
@@ -1776,10 +1824,10 @@
         <v>49</v>
       </c>
       <c r="B47" t="s" s="140">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="C47" t="n" s="141">
-        <v>34.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="48">
@@ -1787,10 +1835,10 @@
         <v>50</v>
       </c>
       <c r="B48" t="s" s="143">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" t="n" s="144">
-        <v>21.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="49">
@@ -1798,10 +1846,32 @@
         <v>51</v>
       </c>
       <c r="B49" t="s" s="146">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" t="n" s="147">
-        <v>33.0</v>
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="148">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s" s="149">
+        <v>41</v>
+      </c>
+      <c r="C50" t="n" s="150">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="151">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s" s="152">
+        <v>41</v>
+      </c>
+      <c r="C51" t="n" s="153">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
